--- a/src/excel-data/kanto.xlsx
+++ b/src/excel-data/kanto.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780C97E-5A71-1147-B0AA-3EDF00A8FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFFBA6-F422-9D44-A25B-08B104901387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="kanto周游券" sheetId="1" r:id="rId1"/>
+    <sheet name="関東周游券" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="451">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,111 +37,2018 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
+    <t>price_child_phone</t>
+  </si>
+  <si>
+    <t>price_under25</t>
+  </si>
+  <si>
+    <t>price_under18</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>validityPeriod_startDate</t>
+  </si>
+  <si>
+    <t>validityPeriod_endDate</t>
+  </si>
+  <si>
+    <t>validityPeriod_description</t>
+  </si>
+  <si>
+    <t>coverage_regions</t>
+  </si>
+  <si>
+    <t>coverage_map</t>
+  </si>
+  <si>
+    <t>targetAudience</t>
+  </si>
+  <si>
+    <t>trainTypes</t>
+  </si>
+  <si>
+    <t>officialLinks</t>
+  </si>
+  <si>
+    <t>purchaseLinks</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>popularity</t>
+  </si>
+  <si>
+    <t>isLimitedPeriod</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>全年可用</t>
+  </si>
+  <si>
+    <t>bestFor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>不问国籍所有游客皆可购买</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>JR-Tokunai-Pass</t>
+  </si>
+  <si>
+    <t>都区内パス</t>
+  </si>
+  <si>
+    <t>东京23区内一日自由乘车券</t>
+  </si>
+  <si>
+    <t>JR-Tokyo-Free-Ticket</t>
+  </si>
+  <si>
+    <t>東京フリーきっぷ</t>
+  </si>
+  <si>
+    <t>东京自由通票</t>
+  </si>
+  <si>
+    <t>JR-Yokohama-MinatoMirai</t>
+  </si>
+  <si>
+    <t>ヨコハマ・みなとみらいパス</t>
+  </si>
+  <si>
+    <t>横滨·港未来票</t>
+  </si>
+  <si>
+    <t>JR-Holiday-Odekake</t>
+  </si>
+  <si>
+    <t>休日おでかけパス</t>
+  </si>
+  <si>
+    <t>假日出行通票</t>
+  </si>
+  <si>
+    <t>JR-Nonbiri-Holiday-Suica</t>
+  </si>
+  <si>
+    <t>のんびりホリデーSuicaパス</t>
+  </si>
+  <si>
+    <t>JR-Monorail-Tokunai</t>
+  </si>
+  <si>
+    <t>モノレール＆都区内パス（モバイルSuica）</t>
+  </si>
+  <si>
+    <t>单轨电车与东京23区内套票（手机Suica）</t>
+  </si>
+  <si>
+    <t>JR-Gunma-Local</t>
+  </si>
+  <si>
+    <t>ぐんまワンデーローカルパス（スマートフォン）</t>
+  </si>
+  <si>
+    <t>群马区域一日通票（手机）</t>
+  </si>
+  <si>
+    <t>Yagan-Site-Pass</t>
+  </si>
+  <si>
+    <t>会津鬼怒川線史跡めぐり往復割引きっぷ</t>
+  </si>
+  <si>
+    <t>会津鬼怒川线史迹巡游往返优惠票</t>
+  </si>
+  <si>
+    <t>Yagan-Free-Pass</t>
+  </si>
+  <si>
+    <t>野岩鉄道会津鬼怒川線全線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>野岩铁道全线自由乘车券</t>
+  </si>
+  <si>
+    <t>Yagan-Aizu-All-Free</t>
+  </si>
+  <si>
+    <t>野岩・会津全線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>野岩・会津全线自由乘车券</t>
+  </si>
+  <si>
+    <t>Yagan-Shiobara</t>
+  </si>
+  <si>
+    <t>塩原温泉・野岩鉄道満喫切符</t>
+  </si>
+  <si>
+    <t>盐原温泉·野岩铁道畅游券</t>
+  </si>
+  <si>
+    <t>Mooka-Joso-Pass</t>
+  </si>
+  <si>
+    <t>常総線・真岡鉄道共通一日自由きっぷ</t>
+  </si>
+  <si>
+    <t>常总线・真冈铁道共通一日通票</t>
+  </si>
+  <si>
+    <t>LRT-Day-Pass</t>
+  </si>
+  <si>
+    <t>ライトライン一日乗車券</t>
+  </si>
+  <si>
+    <t>宇都宫LRT一日乘车券</t>
+  </si>
+  <si>
+    <t>Watarase-Free</t>
+  </si>
+  <si>
+    <t>一日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>渡良濑溪谷铁路一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Jomo-Akagi-Free</t>
+  </si>
+  <si>
+    <t>赤城南麓１日フリー切符</t>
+  </si>
+  <si>
+    <t>赤城南麓一日自由票</t>
+  </si>
+  <si>
+    <t>Jomo-Senior-Pass</t>
+  </si>
+  <si>
+    <t>運転免許返納者割引ワンデーフリーパス</t>
+  </si>
+  <si>
+    <t>驾照返还者优惠一日通票</t>
+  </si>
+  <si>
+    <t>Joshin-Free</t>
+  </si>
+  <si>
+    <t>1日全線フリー乗車券</t>
+  </si>
+  <si>
+    <t>上信电铁全线自由乘车券</t>
+  </si>
+  <si>
+    <t>Joshin-Ueno-Sanpi</t>
+  </si>
+  <si>
+    <t>上野三碑巡り記念乗車券</t>
+  </si>
+  <si>
+    <t>上野三碑纪念乘车券</t>
+  </si>
+  <si>
+    <t>Minato-Free</t>
+  </si>
+  <si>
+    <t>湊線１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>湊线一日自由通票</t>
+  </si>
+  <si>
+    <t>Minato-Free-Ride</t>
+  </si>
+  <si>
+    <t>1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>湊线一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Minato-Park-Free</t>
+  </si>
+  <si>
+    <t>ひたち海浜公園入園券付き湊線１日フリー切符</t>
+  </si>
+  <si>
+    <t>含海滨公园门票湊线一日通票</t>
+  </si>
+  <si>
+    <t>Minato-Support-Free</t>
+  </si>
+  <si>
+    <t>湊線応援券付き湊線１日フリー切符</t>
+  </si>
+  <si>
+    <t>含应援券湊线一日自由通票</t>
+  </si>
+  <si>
+    <t>Kantetsu-Croquette-Free</t>
+  </si>
+  <si>
+    <t>竜鉄コロッケ★フリーきっぷ</t>
+  </si>
+  <si>
+    <t>龙铁可乐饼自由乘车券</t>
+  </si>
+  <si>
+    <t>Kantetsu-Joso-Free</t>
+  </si>
+  <si>
+    <t>常総線１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>常总线一日自由通票</t>
+  </si>
+  <si>
+    <t>Kantetsu-Mooka-Joso-Pass</t>
+  </si>
+  <si>
+    <t>常総線・真岡鐵道共通一日自由きっぷ</t>
+  </si>
+  <si>
+    <t>常总线・真冈铁道共通一日票</t>
+  </si>
+  <si>
+    <t>Ryutetsu-Free</t>
+  </si>
+  <si>
+    <t>流鉄流山線一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>流铁流山线一日自由通票</t>
+  </si>
+  <si>
+    <t>Maihama-1Day-Free</t>
+  </si>
+  <si>
+    <t>１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>舞滨Resort Line一日通票</t>
+  </si>
+  <si>
+    <t>Maihama-2Day-Free</t>
+  </si>
+  <si>
+    <t>２日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>舞滨Resort Line二日通票</t>
+  </si>
+  <si>
+    <t>Maihama-3Day-Free</t>
+  </si>
+  <si>
+    <t>３日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>舞滨Resort Line三日通票</t>
+  </si>
+  <si>
+    <t>Maihama-4Day-Free</t>
+  </si>
+  <si>
+    <t>４日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>舞滨Resort Line四日通票</t>
+  </si>
+  <si>
+    <t>Tobu-Skytree-Free</t>
+  </si>
+  <si>
+    <t>東京スカイツリー周辺散策フリーきっぷ</t>
+  </si>
+  <si>
+    <t>东京晴空塔周边自由通票</t>
+  </si>
+  <si>
+    <t>Tobu-TaitoSumida-Free</t>
+  </si>
+  <si>
+    <t>台東・墨田 東京下町周遊きっぷ</t>
+  </si>
+  <si>
+    <t>Tobu-Nikko-Kinugawa-Free</t>
+  </si>
+  <si>
+    <t>日光・鬼怒川エリア鉄道乗り放題きっぷ</t>
+  </si>
+  <si>
+    <t>日光·鬼怒川地区铁道畅乘票</t>
+  </si>
+  <si>
+    <t>Tobu-Chichibu-Platinum</t>
+  </si>
+  <si>
+    <t>東武鉄道×秩父鉄道SAITAMAプラチナルート乗車券</t>
+  </si>
+  <si>
+    <t>东武·秩父白金路线乘车券</t>
+  </si>
+  <si>
+    <t>Tobu-Nikko-Ouchijuku-Free</t>
+  </si>
+  <si>
+    <t>日光・大内宿フリーきっぷ</t>
+  </si>
+  <si>
+    <t>日光·大内宿自由通票</t>
+  </si>
+  <si>
+    <t>Seibu-Moomin-Valley</t>
+  </si>
+  <si>
+    <t>ムーミンバレーパークおでかけパス（スマートフォン）</t>
+  </si>
+  <si>
+    <t>携带型姆明谷公园游玩券</t>
+  </si>
+  <si>
+    <t>TokyoMetro-24Hour</t>
+  </si>
+  <si>
+    <t>東京メトロ24時間券</t>
+  </si>
+  <si>
+    <t>东京地铁24小时券</t>
+  </si>
+  <si>
+    <t>Metro-Toei-Common-1Day</t>
+  </si>
+  <si>
+    <t>都営地下鉄・東京メトロ共通一日乗車券</t>
+  </si>
+  <si>
+    <t>都营地铁·东京地铁通用一日乘车券</t>
+  </si>
+  <si>
+    <t>Toei-Marugoto-Pass</t>
+  </si>
+  <si>
+    <t>都営まるごときっぷ</t>
+  </si>
+  <si>
+    <t>都营一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Toei-Toden-1Day</t>
+  </si>
+  <si>
+    <t>都電一日乗車券/都電IC一日乗車券</t>
+  </si>
+  <si>
+    <t>都电一日乘车券</t>
+  </si>
+  <si>
+    <t>Tokyu-Setagaya-Walk</t>
+  </si>
+  <si>
+    <t>世田谷線散策きっぷ</t>
+  </si>
+  <si>
+    <t>世田谷线散步票</t>
+  </si>
+  <si>
+    <t>Tokyu-Triangle-Pass</t>
+  </si>
+  <si>
+    <t>東急線トライアングルパス</t>
+  </si>
+  <si>
+    <t>东急线三角游回票</t>
+  </si>
+  <si>
+    <t>Tokyu-Yokohama-Chinatown</t>
+  </si>
+  <si>
+    <t>横浜中華街旅グルメきっぷ</t>
+  </si>
+  <si>
+    <t>横滨中华街美食游通票</t>
+  </si>
+  <si>
+    <t>Tokyu-1Day-Pass</t>
+  </si>
+  <si>
+    <t>東急線ワンデーパス</t>
+  </si>
+  <si>
+    <t>东急线一日通票</t>
+  </si>
+  <si>
+    <t>Tokyu-Bus-1Day</t>
+  </si>
+  <si>
+    <t>東急線・東急バス 一日乗り放題パス</t>
+  </si>
+  <si>
+    <t>东急线・东急巴士一日畅乘券</t>
+  </si>
+  <si>
+    <t>Tokyu-Minatomirai-Pass</t>
+  </si>
+  <si>
+    <t>東急線みなとみらい線ワンデーパス</t>
+  </si>
+  <si>
+    <t>东急线港未来线一日票</t>
+  </si>
+  <si>
+    <t>Tokyu-TokyoMetro-Common-1Day</t>
+  </si>
+  <si>
+    <t>東急線・東京メトロ共通１日乗車券</t>
+  </si>
+  <si>
+    <t>东急线·东京地铁一日共通票</t>
+  </si>
+  <si>
+    <t>Tokyu-TokyoMetro-Toei-Common-1Day</t>
+  </si>
+  <si>
+    <t>東急線・都営地下鉄・東京メトロ共通１日乗車券</t>
+  </si>
+  <si>
+    <t>东急线·都营地铁·东京地铁通用一日票</t>
+  </si>
+  <si>
+    <t>Keikyu-Yokohama-1Day</t>
+  </si>
+  <si>
+    <t>横浜1DAYきっぷ</t>
+  </si>
+  <si>
+    <t>横滨1日票</t>
+  </si>
+  <si>
+    <t>Keikyu-Tokyo-1Day</t>
+  </si>
+  <si>
+    <t>東京1DAYきっぷ</t>
+  </si>
+  <si>
+    <t>东京1日票</t>
+  </si>
+  <si>
+    <t>Keikyu-Miura-1Day</t>
+  </si>
+  <si>
+    <t>三浦半島1DAYきっぷ</t>
+  </si>
+  <si>
+    <t>三浦半岛一日票</t>
+  </si>
+  <si>
+    <t>Keikyu-Miura-Marugoto</t>
+  </si>
+  <si>
+    <t>三浦半島まるごときっぷ</t>
+  </si>
+  <si>
+    <t>三浦半岛通票</t>
+  </si>
+  <si>
+    <t>Keikyu-Yokosuka-FullEnjoy</t>
+  </si>
+  <si>
+    <t>よこすか満喫きっぷ</t>
+  </si>
+  <si>
+    <t>横须贺畅游票</t>
+  </si>
+  <si>
+    <t>Keikyu-WholeLine-Free</t>
+  </si>
+  <si>
+    <t>京急全線1日フリーパス</t>
+  </si>
+  <si>
+    <t>京急全线一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Keikyu-LineBus-Free</t>
+  </si>
+  <si>
+    <t>京急線・京急バス1日フリーパス</t>
+  </si>
+  <si>
+    <t>京急线·京急巴士一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Keikyu-TokyoTour</t>
+  </si>
+  <si>
+    <t>東京周遊パス</t>
+  </si>
+  <si>
+    <t>Odakyu-Tanzawa-Oyama-Pass</t>
+  </si>
+  <si>
+    <t>丹沢・大山フリーパス</t>
+  </si>
+  <si>
+    <t>丹泽·大山自由通票</t>
+  </si>
+  <si>
+    <t>Odakyu-Enoshima-Kamakura</t>
+  </si>
+  <si>
+    <t>江の島・鎌倉フリーパス</t>
+  </si>
+  <si>
+    <t>江之岛·镰仓自由通票</t>
+  </si>
+  <si>
+    <t>Odakyu-AllLine-1Day</t>
+  </si>
+  <si>
+    <t>小田急全线一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Keio-1Day-Keio-Inokashira</t>
+  </si>
+  <si>
+    <t>京王線・井の頭線一日乗車券</t>
+  </si>
+  <si>
+    <t>京王线·井之头线一日乘车券</t>
+  </si>
+  <si>
+    <t>Keio-Amusement-Pass</t>
+  </si>
+  <si>
+    <t>京王アミューズメントパスポート</t>
+  </si>
+  <si>
+    <t>京王线游乐通票</t>
+  </si>
+  <si>
+    <t>Keio-Inokashira-Outing</t>
+  </si>
+  <si>
+    <t>いのかしら おでかけきっぷ</t>
+  </si>
+  <si>
+    <t>井之头线上出游通票</t>
+  </si>
+  <si>
+    <t>Yurikamome-Enjoy-1Day</t>
+  </si>
+  <si>
+    <t>ゆりかもめ一日乗車券</t>
+  </si>
+  <si>
+    <t>百合鸥一日乘车券</t>
+  </si>
+  <si>
+    <t>Yurikamome-Enjoy-24hr</t>
+  </si>
+  <si>
+    <t>ゆりかもめ24時間券</t>
+  </si>
+  <si>
+    <t>百合鸥24小时乘车券</t>
+  </si>
+  <si>
+    <t>Yurikamome-Enjoy-TokyoSubway</t>
+  </si>
+  <si>
+    <t>ゆりかもめ一日乗車券＋Tokyo Subway Ticket（24時間券）</t>
+  </si>
+  <si>
+    <t>百合鸥一日乘车券+东京地铁24小时券</t>
+  </si>
+  <si>
+    <t>Rinkai-1Day</t>
+  </si>
+  <si>
+    <t>りんかい線１日乗車券</t>
+  </si>
+  <si>
+    <t>Monorail-1Day</t>
+  </si>
+  <si>
+    <t>東京モノレール沿線お散歩1dayパス</t>
+  </si>
+  <si>
+    <t>东京单轨电车沿线漫步一日通票</t>
+  </si>
+  <si>
+    <t>Tama-1Day</t>
+  </si>
+  <si>
+    <t>一日乗車券</t>
+  </si>
+  <si>
+    <t>多摩单轨一日乘车券</t>
+  </si>
+  <si>
+    <t>Tama-Set-Ticket</t>
+  </si>
+  <si>
+    <t>多摩モノレールセット券</t>
+  </si>
+  <si>
+    <t>多摩单轨电车套票</t>
+  </si>
+  <si>
+    <t>Chiba-Holiday-Free</t>
+  </si>
+  <si>
+    <t>ホリデーフリーきっぷ</t>
+  </si>
+  <si>
+    <t>千叶都市单轨假日自由通票</t>
+  </si>
+  <si>
+    <t>Chiba-2Day-Free</t>
+  </si>
+  <si>
+    <t>2-Dayフリーきっぷ</t>
+  </si>
+  <si>
+    <t>千叶都市单轨两日自由通票</t>
+  </si>
+  <si>
+    <t>Chiba-Afternoon-Free</t>
+  </si>
+  <si>
+    <t>お昼のお出かけフリーきっぷ</t>
+  </si>
+  <si>
+    <t>午后自由出游券</t>
+  </si>
+  <si>
+    <t>SaitamaMetro-1Day</t>
+  </si>
+  <si>
+    <t>ＳＲ一日乗車券</t>
+  </si>
+  <si>
+    <t>埼玉高速铁道一日乘车券</t>
+  </si>
+  <si>
+    <t>SaitamaShuttle-1Day</t>
+  </si>
+  <si>
+    <t>ニューシャトル １日フリー乗車券</t>
+  </si>
+  <si>
+    <t>埼玉新都市交通一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Keisei-Shitamachi-Day</t>
+  </si>
+  <si>
+    <t>下町日和きっぷ</t>
+  </si>
+  <si>
+    <t>Sotetsu-Tokyu-Common-1Day</t>
+  </si>
+  <si>
+    <t>MinatoMirai-Line-1Day</t>
+  </si>
+  <si>
+    <t>みなとみらい線一日乗車券</t>
+  </si>
+  <si>
+    <t>港未来线一日乘车券</t>
+  </si>
+  <si>
+    <t>Seaside-Line-1Day</t>
+  </si>
+  <si>
+    <t>全線１日乗車券</t>
+  </si>
+  <si>
+    <t>横滨海岸线一日乘车券</t>
+  </si>
+  <si>
+    <t>Shonan-Monorail-1Day</t>
+  </si>
+  <si>
+    <t>湘南モノレール一日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>湘南单轨一日自由乘车券</t>
+  </si>
+  <si>
+    <t>Enoden-1Day</t>
+  </si>
+  <si>
+    <t>江ノ電１日乗車券(のりおりくん)</t>
+  </si>
+  <si>
+    <t>江之电一日乘车券</t>
+  </si>
+  <si>
+    <t>Enoden-SeaLife-Set</t>
+  </si>
+  <si>
+    <t>江ノ電１日乗車券(のりおりくん)＆新江ノ島水族館セット</t>
+  </si>
+  <si>
+    <t>江之电一日乘车券&amp;新江之岛水族馆套票</t>
+  </si>
+  <si>
+    <t>Kamakura-Free-Eco</t>
+  </si>
+  <si>
+    <t>鎌倉フリー環境手形</t>
+  </si>
+  <si>
+    <t>镰仓自由环保通票</t>
+  </si>
+  <si>
+    <t>Hakone-FreePass</t>
+  </si>
+  <si>
+    <t>箱根フリーパス</t>
+  </si>
+  <si>
+    <t>Hakone-LightPass</t>
+  </si>
+  <si>
+    <t>箱根のりものパス Lite</t>
+  </si>
+  <si>
+    <t>箱根乘物轻量通票</t>
+  </si>
+  <si>
+    <t>Hakone-Owakudani</t>
+  </si>
+  <si>
+    <t>大涌谷きっぷ</t>
+  </si>
+  <si>
+    <t>大涌谷通票</t>
+  </si>
+  <si>
+    <t>Hakone-Nanbiri</t>
+  </si>
+  <si>
+    <t>のんびりきっぷ</t>
+  </si>
+  <si>
+    <t>悠闲箱根通票</t>
+  </si>
+  <si>
+    <t>Daiyuzan-Kintaro</t>
+  </si>
+  <si>
+    <t>金太郎きっぷ</t>
+  </si>
+  <si>
+    <t>金太郎通票</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金支付; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票机可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京都</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>dong jing du</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电车</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横浜</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京都；</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>dong jing du</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>悠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Suica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通票</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金支付; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票机可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购买; Suica限定</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>竜ヶ崎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票机可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yamaman-1Day</t>
+  </si>
+  <si>
+    <t>１日乗車券</t>
+  </si>
+  <si>
+    <t>山万一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yamaman-1Day.png</t>
+  </si>
+  <si>
+    <t>Choshi-Komawari</t>
+  </si>
+  <si>
+    <t>弧廻手形</t>
+  </si>
+  <si>
+    <t>犬吠铁路弧廻手形通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Choshi-Komawari.png</t>
+  </si>
+  <si>
+    <t>Choshi-Tabibito</t>
+  </si>
+  <si>
+    <t>銚子1日旅人パス</t>
+  </si>
+  <si>
+    <t>犬吠铁路旅人一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Choshi-Tabibito.png</t>
+  </si>
+  <si>
+    <t>Choshi-Good-Ride</t>
+  </si>
+  <si>
+    <t>ちょうしいいライド！パス</t>
+  </si>
+  <si>
+    <t>犬吠铁路Good Ride通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Choshi-Good-Ride.png</t>
+  </si>
+  <si>
+    <t>Choshi-Inubo-Line</t>
+  </si>
+  <si>
+    <t>犬吠崖っぷちライン1日乗車券</t>
+  </si>
+  <si>
+    <t>犬吠崖峭壁线一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Choshi-Inubo-Line.png</t>
+  </si>
+  <si>
+    <t>Choshi-Beica</t>
+  </si>
+  <si>
+    <t>デジタル1日乗車券 Beica</t>
+  </si>
+  <si>
+    <t>犬吠铁路电子一日券（Beica）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Choshi-Beica.png</t>
+  </si>
+  <si>
+    <t>Isumi-Weekday</t>
+  </si>
+  <si>
+    <t>いすみ鉄道一日フリー乗車券(平日用)</t>
+  </si>
+  <si>
+    <t>夷隅铁道一日自由乘车券（平日）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Isumi-Weekday.png</t>
+  </si>
+  <si>
+    <t>Isumi-Holiday</t>
+  </si>
+  <si>
+    <t>いすみ鉄道一日フリー乗車券(土休日用)</t>
+  </si>
+  <si>
+    <t>夷隅铁道一日自由乘车券（节假日）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Isumi-Holiday.png</t>
+  </si>
+  <si>
+    <t>Isumi-iSumica</t>
+  </si>
+  <si>
+    <t>ないすみーとゅー iSumica</t>
+  </si>
+  <si>
+    <t>夷隅铁道iSumica电子票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Isumi-iSumica.png</t>
+  </si>
+  <si>
+    <t>Kominato-Free</t>
+  </si>
+  <si>
+    <t>1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>小湊铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kominato-Free.png</t>
+  </si>
+  <si>
+    <t>Kominato-Kazusa-Takataki</t>
+  </si>
+  <si>
+    <t>上総鶴舞・高滝周遊乗車券</t>
+  </si>
+  <si>
+    <t>上总鹤舞・高滝周游乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kominato-Kazusa-Takataki.png</t>
+  </si>
+  <si>
+    <t>Kominato-Satoyama</t>
+  </si>
+  <si>
+    <t>里山フリーきっぷ</t>
+  </si>
+  <si>
+    <t>里山一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kominato-Satoyama.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chiba-Holiday-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chiba-2Day-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chiba-Afternoon-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tobu-Chichibu-Platinum.png</t>
+  </si>
+  <si>
+    <t>Chichibu-Smart-Free</t>
+  </si>
+  <si>
+    <t>秩父路遊々フリーきっぷ【スマートフォン】</t>
+  </si>
+  <si>
+    <t>秩父观光一日电子通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chichibu-Smart-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/SaitamaMetro-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/SaitamaShuttle-1Day.png</t>
+  </si>
+  <si>
+    <t>Saitama-InaCycling</t>
+  </si>
+  <si>
+    <t>伊奈レンタサイクルきっぷ</t>
+  </si>
+  <si>
+    <t>伊奈租赁自行车票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Saitama-InaCycling.png</t>
+  </si>
+  <si>
+    <t>京成下町游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keisei-Shitamachi-Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Tokunai-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Tokyo-Free-Ticket.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Yokohama-MinatoMirai.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Holiday-Odekake.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Nonbiri-Holiday-Suica.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Monorail-Tokunai.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/JR-Gunma-Local.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yagan-Site-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yagan-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yagan-Aizu-All-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yagan-Shiobara.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Mooka-Joso-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/LRT-Day-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Watarase-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Jomo-Akagi-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Jomo-Senior-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Joshin-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Joshin-Ueno-Sanpi.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minato-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minato-Free-Ride.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minato-Park-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minato-Support-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kantetsu-Croquette-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kantetsu-Joso-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kantetsu-Mooka-Joso-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ryutetsu-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Maihama-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Maihama-2Day-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Maihama-3Day-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Maihama-4Day-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tobu-Skytree-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tobu-TaitoSumida-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tobu-Nikko-Kinugawa-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tobu-Nikko-Ouchijuku-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Seibu-Moomin-Valley.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/TokyoMetro-24Hour.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Metro-Toei-Common-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toei-Marugoto-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toei-Toden-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Setagaya-Walk.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Triangle-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Yokohama-Chinatown.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Bus-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Minatomirai-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-TokyoMetro-Common-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-TokyoMetro-Toei-Common-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-Yokohama-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-Tokyo-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-Miura-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-Miura-Marugoto.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-Yokosuka-FullEnjoy.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-WholeLine-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-LineBus-Free.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keikyu-TokyoTour.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Odakyu-Tanzawa-Oyama-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Odakyu-Enoshima-Kamakura.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Odakyu-AllLine-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keio-1Day-Keio-Inokashira.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keio-Amusement-Pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keio-Inokashira-Outing.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yurikamome-Enjoy-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yurikamome-Enjoy-24hr.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yurikamome-Enjoy-TokyoSubway.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Rinkai-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Monorail-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tama-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tama-Set-Ticket.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/MinatoMirai-Line-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Seaside-Line-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shonan-Monorail-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Enoden-1Day.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Enoden-SeaLife-Set.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kamakura-Free-Eco.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hakone-FreePass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hakone-LightPass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hakone-Owakudani.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hakone-Nanbiri.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/Daiyuzan-Kintaro.png</t>
+  </si>
+  <si>
+    <t>平日</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>墨田</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>京下町周游券1日券</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>🎫</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>墨田</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>京下町周游券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日券</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>池上線・東急多摩川線ワンデーパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>相鉄・東急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>共通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日乗車券</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「PASMO」が必要</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京周遊パス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんかい線一日乗車券</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱根自由通票３日券</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱根自由通票２日券</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tokyu-Ikegami-Tamagawa-1Day</t>
+  </si>
+  <si>
+    <r>
+      <t>池上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>急多摩川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一日乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>急共通一日乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/images/coverage/Tokyu-Ikegami-Tamagawa-1Day.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/images/coverage/Sotetsu-Tokyu-Common-1Day.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
-  </si>
-  <si>
-    <t>price_child_phone</t>
-  </si>
-  <si>
-    <t>price_under25</t>
-  </si>
-  <si>
-    <t>price_under18</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>validityPeriod_startDate</t>
-  </si>
-  <si>
-    <t>validityPeriod_endDate</t>
-  </si>
-  <si>
-    <t>validityPeriod_description</t>
-  </si>
-  <si>
-    <t>coverage_regions</t>
-  </si>
-  <si>
-    <t>coverage_map</t>
-  </si>
-  <si>
-    <t>targetAudience</t>
-  </si>
-  <si>
-    <t>trainTypes</t>
-  </si>
-  <si>
-    <t>officialLinks</t>
-  </si>
-  <si>
-    <t>purchaseLinks</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>popularity</t>
-  </si>
-  <si>
-    <t>isLimitedPeriod</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>全年可用</t>
-  </si>
-  <si>
-    <t>bestFor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
-    <t>现金支付; 购票机可购买</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>city</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,11 +2057,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,13 +2137,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,15 +2491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="40.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,148 +2533,3715 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:30" ht="20">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2">
-        <v>830</v>
+        <v>760</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>420</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>380</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="20">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>1600</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U3" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V3" t="s">
+        <v>282</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="20">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>530</v>
+      </c>
+      <c r="G4">
+        <v>260</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>282</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="20">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>2720</v>
+      </c>
+      <c r="G5">
+        <v>1360</v>
+      </c>
+      <c r="R5" t="s">
+        <v>284</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="20">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6">
+        <v>2670</v>
+      </c>
+      <c r="G6">
+        <v>1330</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="20">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>1350</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="20">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+      <c r="G8">
+        <v>1250</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="20">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>2100</v>
+      </c>
+      <c r="G10">
+        <v>1060</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="20">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>4820</v>
+      </c>
+      <c r="G11">
+        <v>2420</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="20">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>2200</v>
+      </c>
+      <c r="G12">
+        <v>1100</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="20">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>2300</v>
+      </c>
+      <c r="G13">
+        <v>1150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>284</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="20">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>1880</v>
+      </c>
+      <c r="G15">
+        <v>940</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>1300</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="20">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>2260</v>
+      </c>
+      <c r="G18">
+        <v>1130</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="20">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>1140</v>
+      </c>
+      <c r="G19">
+        <v>570</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>950</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="T21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>1200</v>
+      </c>
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="T22" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="20">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="20">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="20">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" t="s">
+        <v>284</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="20">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2300</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1150</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" t="s">
+        <v>284</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="20">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>250</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28">
+        <v>700</v>
+      </c>
+      <c r="G28">
+        <v>350</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="T28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>900</v>
+      </c>
+      <c r="G29">
+        <v>450</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="T29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30">
+        <v>1200</v>
+      </c>
+      <c r="G30">
+        <v>600</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="T30" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31">
+        <v>1500</v>
+      </c>
+      <c r="G31">
+        <v>750</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="T31" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="20">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <v>250</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="AD32" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33">
+        <v>700</v>
+      </c>
+      <c r="G33">
+        <v>350</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="AD33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="20">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="AD34" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="20">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35">
+        <v>600</v>
+      </c>
+      <c r="G35">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="AD35" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36">
+        <v>600</v>
+      </c>
+      <c r="G36">
+        <v>300</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="20">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37">
+        <v>600</v>
+      </c>
+      <c r="G37">
+        <v>300</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="20">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38">
+        <v>1200</v>
+      </c>
+      <c r="G38">
+        <v>600</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
         <v>25</v>
       </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2">
+      <c r="R38" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="AD38" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="20">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G39">
+        <v>750</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="AD39" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="20">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40">
+        <v>1100</v>
+      </c>
+      <c r="G40">
+        <v>560</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="AD40" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="20">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="AD41" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="20">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1420</v>
+      </c>
+      <c r="G42">
+        <v>710</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="AD42" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="20">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="AD43" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="20">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="6">
+        <v>630</v>
+      </c>
+      <c r="G44">
+        <v>320</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" t="s">
+        <v>284</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="AD44" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="20">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G45">
+        <v>530</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R45" t="s">
+        <v>284</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="AD45" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="20">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="6">
+        <v>630</v>
+      </c>
+      <c r="G46">
+        <v>320</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="R46" t="s">
+        <v>432</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="AD46" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="20">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="AD47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="20">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1700</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="AD48" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="20">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="6">
+        <v>580</v>
+      </c>
+      <c r="G49">
+        <v>290</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="AD49" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="20">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="6">
+        <v>720</v>
+      </c>
+      <c r="G50">
+        <v>360</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="AD50" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="20">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1020</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="AD51" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="20">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="6">
+        <v>510</v>
+      </c>
+      <c r="G52">
+        <v>260</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="AD52" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="20">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="6">
+        <v>510</v>
+      </c>
+      <c r="G53">
+        <v>250</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="AD53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="20">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E54" s="6">
+        <v>500</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O54" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="AD54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="20">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E55" s="6">
+        <v>700</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="AD55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="20">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="6">
+        <v>500</v>
+      </c>
+      <c r="G56">
+        <v>250</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O56" t="s">
+        <v>25</v>
+      </c>
+      <c r="R56" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="AD56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="20">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4860</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2410</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="R57" t="s">
+        <v>23</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="AD57" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="20">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4100</v>
+      </c>
+      <c r="G58">
+        <v>2400</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="AD58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="20">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="6">
+        <v>700</v>
+      </c>
+      <c r="G59">
+        <v>350</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="AD59" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="20">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="6">
+        <v>900</v>
+      </c>
+      <c r="G60">
+        <v>450</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="AD60" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="20">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61">
+        <v>700</v>
+      </c>
+      <c r="G61">
+        <v>350</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="AD61" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="20">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="6">
+        <v>400</v>
+      </c>
+      <c r="G62">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="AD62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="20">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="6">
+        <v>380</v>
+      </c>
+      <c r="G63">
+        <v>190</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="AD63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="20">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="6">
+        <v>470</v>
+      </c>
+      <c r="G64">
+        <v>240</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="AD64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="20">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3300</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2200</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="R65" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="AD65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="20">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="6">
+        <v>780</v>
+      </c>
+      <c r="G66">
+        <v>390</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="R66" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="AD66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1110</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1060</v>
+      </c>
+      <c r="G67">
+        <v>560</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="AD67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1220</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1190</v>
+      </c>
+      <c r="G68">
+        <v>610</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="AD68" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="20">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E69" s="6">
+        <v>440</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="T69" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="AD69" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="20">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1300</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70">
+        <v>520</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="AD70" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1280</v>
+      </c>
+      <c r="G71">
+        <v>640</v>
+      </c>
+      <c r="N71" t="s">
+        <v>437</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="AD71" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1680</v>
+      </c>
+      <c r="G72">
+        <v>840</v>
+      </c>
+      <c r="N72" t="s">
+        <v>437</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="AD72" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="20">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1070</v>
+      </c>
+      <c r="G73">
+        <v>530</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="AD73" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="20">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="6">
+        <v>910</v>
+      </c>
+      <c r="G74">
+        <v>450</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s">
+        <v>23</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="AD74" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1260</v>
+      </c>
+      <c r="G75">
+        <v>500</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="AD75" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="20">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F76" s="6">
+        <v>4300</v>
+      </c>
+      <c r="G76" s="6">
+        <v>3420</v>
+      </c>
+      <c r="H76" s="6">
+        <v>3420</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="R76" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="AD76" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="20">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3210</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3010</v>
+      </c>
+      <c r="G77" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H77" s="6">
+        <v>2500</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>23</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="AD77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="20">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="AD78" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="AD79" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1110</v>
+      </c>
+      <c r="G80">
+        <v>600</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="AD80" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="20">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1750</v>
+      </c>
+      <c r="F81">
+        <v>790</v>
+      </c>
+      <c r="G81">
+        <v>880</v>
+      </c>
+      <c r="H81">
+        <v>400</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="R81" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="AD81" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="6">
+        <v>810</v>
+      </c>
+      <c r="G82">
+        <v>410</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="AD82" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="20">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="AD83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="20">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="AD84" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="AD85" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="20">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86">
+        <v>580</v>
+      </c>
+      <c r="G86">
+        <v>290</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="AD86" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="20">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" s="6">
+        <v>820</v>
+      </c>
+      <c r="G87">
+        <v>410</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="AD87" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="20">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E88" s="6">
+        <v>900</v>
+      </c>
+      <c r="G88">
+        <v>450</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O88">
+        <v>24</v>
+      </c>
+      <c r="R88" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="AD88" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1620</v>
+      </c>
+      <c r="G89">
+        <v>810</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="AD89" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="AD90" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="20">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" s="6">
+        <v>700</v>
+      </c>
+      <c r="G91">
+        <v>350</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>23</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="AD91" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="20">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" s="6">
+        <v>890</v>
+      </c>
+      <c r="G92">
+        <v>450</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s">
+        <v>23</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="AD92" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="AD93" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="20">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="6">
+        <v>460</v>
+      </c>
+      <c r="G94">
+        <v>230</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="R94" t="s">
+        <v>23</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="AD94" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="6">
+        <v>680</v>
+      </c>
+      <c r="G95">
+        <v>340</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="AD95" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="20">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="6">
+        <v>610</v>
+      </c>
+      <c r="G96">
+        <v>310</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s">
+        <v>23</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="AD96" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="20">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" s="6">
+        <v>800</v>
+      </c>
+      <c r="G97">
+        <v>400</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s">
+        <v>23</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="AD97" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="20">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3050</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1480</v>
+      </c>
+      <c r="K98">
+        <v>2330</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="R98" t="s">
+        <v>23</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="AD98" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" ht="20">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="6">
+        <v>600</v>
+      </c>
+      <c r="G99">
+        <v>300</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s">
+        <v>23</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="AD99" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" ht="20">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E100" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="R100" t="s">
+        <v>23</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="AD100" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="20">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E101" s="6">
+        <v>5400</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1250</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O101">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="R101" t="s">
+        <v>23</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="AD101" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="20">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E102" s="6">
+        <v>3800</v>
+      </c>
+      <c r="G102" s="6">
+        <v>900</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="R102" t="s">
+        <v>23</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="AD102" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="20">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="6">
+        <v>3700</v>
+      </c>
+      <c r="G103" s="6">
+        <v>980</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="R103" t="s">
+        <v>23</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="AD103" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" ht="20">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1580</v>
+      </c>
+      <c r="G104" s="6">
+        <v>500</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s">
+        <v>23</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="AD104" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="20">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E105" s="6">
+        <v>620</v>
+      </c>
+      <c r="G105" s="6">
+        <v>320</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="R105" t="s">
+        <v>23</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="AD105" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:30">
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:30">
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:30">
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:30">
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:30">
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:30">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="11:23">
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="11:23">
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="11:23">
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="11:23">
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="11:23">
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="11:23">
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="11:23">
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="11:23">
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="11:23">
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="11:23">
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="11:23">
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="11:23">
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="11:23">
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="11:23">
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="11:23">
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="11:23">
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/excel-data/kanto.xlsx
+++ b/src/excel-data/kanto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFFBA6-F422-9D44-A25B-08B104901387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC560B-D19D-D244-9765-C17AE412E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="452">
   <si>
     <t>sortOrder</t>
   </si>
@@ -2041,6 +2041,10 @@
   </si>
   <si>
     <t>price_child_regular</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2493,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2510,7 +2514,14 @@
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="13" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="40.5" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="20" max="20" width="49" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="23" max="23" width="28.83203125" customWidth="1"/>
+    <col min="24" max="24" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -2594,6 +2605,9 @@
       </c>
       <c r="AA1" t="s">
         <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20">

--- a/src/excel-data/kanto.xlsx
+++ b/src/excel-data/kanto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769FAB7-A9AD-934D-A1D0-CB940FAD3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BB003-62B0-0F4B-B6C8-916A2E55ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="960" windowWidth="32680" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="690">
   <si>
     <t>sortOrder</t>
   </si>
@@ -1172,24 +1172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="黒体-簡 ミディアム"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铁; 普通电车</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>dian che</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.jreast.co.jp/tickets/info.aspx?GoodsCd=2487</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1198,36 +1180,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※电子票只能买当日的票</t>
-    <rPh sb="1" eb="2">
-      <t>dian zi p</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi neng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dang ri</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>piao</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.jreast.co.jp/tickets/info.aspx?GoodsCd=2490</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【利用期間】周末以及4月29日～5月5日,7月20日～8月31日,12月29日～1月3日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regional</t>
   </si>
   <si>
@@ -1240,26 +1196,6 @@
   </si>
   <si>
     <t>单轨电车与东京23区周游券</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通电车;单轨电车</t>
-    <rPh sb="4" eb="5">
-      <t>dian che</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan gui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dian c</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通电车;单轨电车</t>
-    <rPh sb="4" eb="5">
-      <t>dian che</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1284,17 +1220,6 @@
   </si>
   <si>
     <t>群马区域1日周游券</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通电车;JR巴士</t>
-    <rPh sb="4" eb="5">
-      <t>dian che</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※无法使用わたらせ渓谷铁道无轨电车</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1667,12 +1592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【利用期間】周末以及4月1日～5月31日,7月1日～8月31日,11月1日～1月31日
-【购买车站】取手駅、戸頭駅、守谷駅、新守谷駅、水海道駅、下妻駅、下館駅
-※「ＳＬもおか号」需要另外花钱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>茨城；关东</t>
     <rPh sb="0" eb="1">
       <t>ci cheng</t>
@@ -2314,11 +2233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【利用期間】周末以及11/13(茨城住民之日),12/29～1/3
-※1名大人可免费带2名儿童</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>现金购票；车站购票；车内购票</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3718,14 +3632,14 @@
   </si>
   <si>
     <t>地铁</t>
-    <rPh sb="0" eb="4">
+    <rPh sb="0" eb="2">
       <t>dian che</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>地铁；巴士</t>
-    <rPh sb="0" eb="7">
+    <rPh sb="0" eb="5">
       <t>dian che</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3929,6 +3843,118 @@
   </si>
   <si>
     <t>大涌谷2日周游券</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及4月1日～5月31日,7月1日～8月31日,11月1日～1月31日
+【购买车站】取手駅、戸頭駅、守谷駅、新守谷駅、水海道駅、下妻駅、下館駅
+※「ＳＬもおか号」需要另外花钱</t>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及11/13(茨城住民之日),12/29～1/3
+※1名大人可免费带2名儿童</t>
+  </si>
+  <si>
+    <r>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黒体-簡 ミディアム"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁; 特急电车; 急行电车; 普通电车</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※只有大人票可买电子票
+※坐普通电车以外需另外加钱</t>
+    <rPh sb="1" eb="2">
+      <t>zhi y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian zi p</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特急电车; 急行电车; 普通电车</t>
+    <rPh sb="0" eb="4">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※电子票只能买当日的票
+※坐普通电车以外需另外加钱</t>
+    <rPh sb="1" eb="2">
+      <t>dian zi p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dang ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>piao</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及4月29日～5月5日,7月20日～8月31日,12月29日～1月3日
+※坐普通电车以外需另外加钱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特急电车; 急行电车; 普通电车;单轨电车</t>
+    <rPh sb="4" eb="5">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※坐普通电车以外需另外加钱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特急电车; 急行电车; 普通电车;JR巴士</t>
+    <rPh sb="4" eb="5">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※无法使用わたらせ渓谷铁道无轨电车
+※坐普通电车以外需另外加钱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4415,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M66" workbookViewId="0">
-      <selection activeCell="Q106" sqref="Q106"/>
+    <sheetView tabSelected="1" topLeftCell="M58" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4441,7 +4467,7 @@
     <col min="19" max="19" width="30.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="49" style="1" customWidth="1"/>
     <col min="21" max="21" width="32.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19" style="1" customWidth="1"/>
+    <col min="22" max="22" width="29.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="28.83203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="30.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="10.83203125" style="1" customWidth="1"/>
@@ -4564,7 +4590,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O2" s="6">
         <v>1</v>
@@ -4612,7 +4638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="6" customFormat="1">
+    <row r="3" spans="1:30" s="6" customFormat="1" ht="32">
       <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
@@ -4626,7 +4652,7 @@
         <v>800</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O3" s="6">
         <v>1</v>
@@ -4644,10 +4670,10 @@
         <v>25</v>
       </c>
       <c r="V3" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>360</v>
@@ -4658,14 +4684,14 @@
       <c r="Z3" s="6">
         <v>4</v>
       </c>
-      <c r="AB3" s="6" t="s">
-        <v>361</v>
+      <c r="AB3" s="9" t="s">
+        <v>681</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="6" customFormat="1">
+    <row r="4" spans="1:30" s="6" customFormat="1" ht="32">
       <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
@@ -4679,7 +4705,7 @@
         <v>260</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O4" s="6">
         <v>1</v>
@@ -4688,7 +4714,7 @@
         <v>23</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>210</v>
@@ -4697,10 +4723,10 @@
         <v>25</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>358</v>
+        <v>682</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>360</v>
@@ -4711,14 +4737,14 @@
       <c r="Z4" s="6">
         <v>4</v>
       </c>
-      <c r="AB4" s="6" t="s">
-        <v>365</v>
+      <c r="AB4" s="9" t="s">
+        <v>683</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="6" customFormat="1">
+    <row r="5" spans="1:30" s="6" customFormat="1" ht="48">
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
@@ -4732,7 +4758,7 @@
         <v>1360</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O5" s="6">
         <v>1</v>
@@ -4750,16 +4776,16 @@
         <v>25</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>373</v>
+        <v>685</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X5" s="8" t="s">
         <v>360</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z5" s="5">
         <v>4</v>
@@ -4767,8 +4793,8 @@
       <c r="AA5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="AB5" s="6" t="s">
-        <v>367</v>
+      <c r="AB5" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>34</v>
@@ -4788,7 +4814,7 @@
         <v>1330</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="O6" s="6">
         <v>1</v>
@@ -4806,30 +4832,33 @@
         <v>25</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>372</v>
+        <v>685</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="X6" s="8" t="s">
         <v>360</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z6" s="6">
         <v>3</v>
       </c>
+      <c r="AB6" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="AD6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="6" customFormat="1" ht="32">
+    <row r="7" spans="1:30" s="6" customFormat="1" ht="48">
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" s="6">
         <v>1350</v>
@@ -4838,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
@@ -4856,33 +4885,33 @@
         <v>25</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>372</v>
+        <v>685</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>360</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z7" s="6">
         <v>3</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>367</v>
+        <v>684</v>
       </c>
       <c r="AD7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="6" customFormat="1">
+    <row r="8" spans="1:30" s="6" customFormat="1" ht="32">
       <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E8" s="6">
         <v>2500</v>
@@ -4891,7 +4920,7 @@
         <v>1250</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -4900,7 +4929,7 @@
         <v>23</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>214</v>
@@ -4909,22 +4938,22 @@
         <v>25</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>377</v>
+        <v>687</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z8" s="6">
         <v>3</v>
       </c>
-      <c r="AB8" s="6" t="s">
-        <v>378</v>
+      <c r="AB8" s="9" t="s">
+        <v>688</v>
       </c>
       <c r="AD8" s="7" t="s">
         <v>40</v>
@@ -4935,13 +4964,13 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
@@ -4950,7 +4979,7 @@
         <v>23</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>215</v>
@@ -4962,16 +4991,16 @@
         <v>358</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z9" s="6">
         <v>3</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AD9" s="7" t="s">
         <v>42</v>
@@ -4991,7 +5020,7 @@
         <v>1060</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O10" s="6">
         <v>1</v>
@@ -5000,7 +5029,7 @@
         <v>23</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>216</v>
@@ -5012,16 +5041,16 @@
         <v>358</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z10" s="6">
         <v>3</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AD10" s="7" t="s">
         <v>44</v>
@@ -5041,7 +5070,7 @@
         <v>2420</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O11" s="6">
         <v>2</v>
@@ -5050,7 +5079,7 @@
         <v>23</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>217</v>
@@ -5062,16 +5091,16 @@
         <v>358</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z11" s="6">
         <v>3</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AD11" s="7" t="s">
         <v>46</v>
@@ -5091,7 +5120,7 @@
         <v>1100</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O12" s="6">
         <v>1</v>
@@ -5100,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>218</v>
@@ -5109,19 +5138,19 @@
         <v>25</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z12" s="6">
         <v>3</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AD12" s="7" t="s">
         <v>48</v>
@@ -5141,7 +5170,7 @@
         <v>1150</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O13" s="6">
         <v>1</v>
@@ -5150,7 +5179,7 @@
         <v>353</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>219</v>
@@ -5162,10 +5191,10 @@
         <v>358</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z13" s="6">
         <v>3</v>
@@ -5174,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>392</v>
+        <v>678</v>
       </c>
       <c r="AD13" s="7" t="s">
         <v>286</v>
@@ -5185,7 +5214,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E14" s="6">
         <v>1000</v>
@@ -5194,7 +5223,7 @@
         <v>500</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="O14" s="6">
         <v>1</v>
@@ -5203,7 +5232,7 @@
         <v>23</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>220</v>
@@ -5215,16 +5244,16 @@
         <v>358</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Z14" s="6">
         <v>3</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AD14" s="7" t="s">
         <v>287</v>
@@ -5235,7 +5264,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E15" s="6">
         <v>1880</v>
@@ -5244,7 +5273,7 @@
         <v>940</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O15" s="6">
         <v>1</v>
@@ -5253,7 +5282,7 @@
         <v>23</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>221</v>
@@ -5265,19 +5294,19 @@
         <v>358</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z15" s="6">
         <v>3</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AD15" s="7" t="s">
         <v>191</v>
@@ -5297,7 +5326,7 @@
         <v>650</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -5306,7 +5335,7 @@
         <v>23</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>222</v>
@@ -5318,19 +5347,19 @@
         <v>358</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z16" s="6">
         <v>3</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>54</v>
@@ -5350,7 +5379,7 @@
         <v>1140</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
@@ -5359,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>223</v>
@@ -5371,19 +5400,19 @@
         <v>358</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z17" s="6">
         <v>4</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>56</v>
@@ -5394,7 +5423,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E18" s="6">
         <v>1140</v>
@@ -5403,7 +5432,7 @@
         <v>580</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -5412,7 +5441,7 @@
         <v>23</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>224</v>
@@ -5424,16 +5453,16 @@
         <v>358</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z18" s="6">
         <v>3</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AD18" s="7" t="s">
         <v>303</v>
@@ -5444,7 +5473,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E19" s="6">
         <v>1000</v>
@@ -5456,7 +5485,7 @@
         <v>500</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -5465,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>225</v>
@@ -5477,19 +5506,19 @@
         <v>358</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z19" s="6">
         <v>4</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AD19" s="7" t="s">
         <v>59</v>
@@ -5500,7 +5529,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E20" s="6">
         <v>600</v>
@@ -5509,7 +5538,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -5518,7 +5547,7 @@
         <v>23</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>226</v>
@@ -5530,16 +5559,16 @@
         <v>358</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z20" s="6">
         <v>3</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AD20" s="7" t="s">
         <v>61</v>
@@ -5562,7 +5591,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -5571,7 +5600,7 @@
         <v>353</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>227</v>
@@ -5583,10 +5612,10 @@
         <v>358</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z21" s="6">
         <v>4</v>
@@ -5595,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>432</v>
+        <v>679</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>63</v>
@@ -5606,7 +5635,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E22" s="6">
         <v>500</v>
@@ -5618,7 +5647,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O22" s="6">
         <v>1</v>
@@ -5627,7 +5656,7 @@
         <v>23</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="T22" s="7" t="s">
         <v>228</v>
@@ -5639,10 +5668,10 @@
         <v>358</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z22" s="6">
         <v>3</v>
@@ -5656,7 +5685,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E23" s="6">
         <v>700</v>
@@ -5668,7 +5697,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O23" s="6">
         <v>1</v>
@@ -5677,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>229</v>
@@ -5689,10 +5718,10 @@
         <v>358</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z23" s="6">
         <v>3</v>
@@ -5706,7 +5735,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E24" s="6">
         <v>900</v>
@@ -5718,7 +5747,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O24" s="6">
         <v>2</v>
@@ -5727,7 +5756,7 @@
         <v>23</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>230</v>
@@ -5739,10 +5768,10 @@
         <v>358</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z24" s="6">
         <v>3</v>
@@ -5756,7 +5785,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E25" s="6">
         <v>1200</v>
@@ -5768,7 +5797,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O25" s="6">
         <v>3</v>
@@ -5777,7 +5806,7 @@
         <v>23</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>231</v>
@@ -5789,10 +5818,10 @@
         <v>358</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z25" s="6">
         <v>3</v>
@@ -5806,7 +5835,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E26" s="6">
         <v>1500</v>
@@ -5818,7 +5847,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O26" s="6">
         <v>4</v>
@@ -5827,7 +5856,7 @@
         <v>23</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>232</v>
@@ -5839,10 +5868,10 @@
         <v>358</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z26" s="6">
         <v>3</v>
@@ -5865,7 +5894,7 @@
         <v>250</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O27" s="6">
         <v>1</v>
@@ -5874,7 +5903,7 @@
         <v>23</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>167</v>
@@ -5886,19 +5915,19 @@
         <v>358</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z27" s="6">
         <v>3</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AD27" s="7" t="s">
         <v>166</v>
@@ -5906,10 +5935,10 @@
     </row>
     <row r="28" spans="2:30" s="6" customFormat="1">
       <c r="B28" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E28" s="6">
         <v>800</v>
@@ -5918,7 +5947,7 @@
         <v>400</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O28" s="6">
         <v>2</v>
@@ -5927,10 +5956,10 @@
         <v>23</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>25</v>
@@ -5939,19 +5968,19 @@
         <v>358</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z28" s="6">
         <v>3</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AD28" s="7" t="s">
         <v>166</v>
@@ -5959,10 +5988,10 @@
     </row>
     <row r="29" spans="2:30" s="6" customFormat="1">
       <c r="B29" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E29" s="6">
         <v>36500</v>
@@ -5971,7 +6000,7 @@
         <v>20000</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O29" s="6">
         <v>365</v>
@@ -5980,10 +6009,10 @@
         <v>23</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="U29" s="6" t="s">
         <v>25</v>
@@ -5992,19 +6021,19 @@
         <v>358</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z29" s="6">
         <v>3</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AD29" s="7" t="s">
         <v>166</v>
@@ -6024,7 +6053,7 @@
         <v>350</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="O30" s="6">
         <v>1</v>
@@ -6033,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="T30" s="7" t="s">
         <v>170</v>
@@ -6045,16 +6074,16 @@
         <v>358</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z30" s="6">
         <v>3</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AD30" s="7" t="s">
         <v>169</v>
@@ -6065,7 +6094,7 @@
         <v>171</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E31" s="6">
         <v>1000</v>
@@ -6074,7 +6103,7 @@
         <v>500</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O31" s="6">
         <v>1</v>
@@ -6083,7 +6112,7 @@
         <v>23</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>173</v>
@@ -6095,19 +6124,19 @@
         <v>358</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z31" s="6">
         <v>3</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AD31" s="7" t="s">
         <v>172</v>
@@ -6127,7 +6156,7 @@
         <v>300</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O32" s="6">
         <v>1</v>
@@ -6136,7 +6165,7 @@
         <v>23</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>176</v>
@@ -6148,13 +6177,13 @@
         <v>358</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z32" s="6">
         <v>3</v>
@@ -6177,7 +6206,7 @@
         <v>300</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O33" s="6">
         <v>1</v>
@@ -6186,7 +6215,7 @@
         <v>23</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>179</v>
@@ -6198,13 +6227,13 @@
         <v>358</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z33" s="6">
         <v>3</v>
@@ -6227,7 +6256,7 @@
         <v>300</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O34" s="6">
         <v>1</v>
@@ -6236,7 +6265,7 @@
         <v>23</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="T34" s="7" t="s">
         <v>182</v>
@@ -6248,13 +6277,13 @@
         <v>358</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z34" s="6">
         <v>3</v>
@@ -6268,7 +6297,7 @@
         <v>183</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E35" s="6">
         <v>1200</v>
@@ -6277,7 +6306,7 @@
         <v>600</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O35" s="6">
         <v>1</v>
@@ -6286,7 +6315,7 @@
         <v>23</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>184</v>
@@ -6298,19 +6327,19 @@
         <v>358</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z35" s="6">
         <v>3</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AD35" s="7" t="s">
         <v>290</v>
@@ -6321,7 +6350,7 @@
         <v>185</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E36" s="11">
         <v>1500</v>
@@ -6330,7 +6359,7 @@
         <v>750</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O36" s="6">
         <v>1</v>
@@ -6339,7 +6368,7 @@
         <v>23</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="T36" s="7" t="s">
         <v>186</v>
@@ -6351,19 +6380,19 @@
         <v>358</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z36" s="6">
         <v>3</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AD36" s="7" t="s">
         <v>291</v>
@@ -6383,7 +6412,7 @@
         <v>560</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O37" s="6">
         <v>1</v>
@@ -6392,7 +6421,7 @@
         <v>23</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>189</v>
@@ -6404,13 +6433,13 @@
         <v>358</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z37" s="6">
         <v>3</v>
@@ -6424,7 +6453,7 @@
         <v>190</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E38" s="11">
         <v>2000</v>
@@ -6433,7 +6462,7 @@
         <v>1000</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O38" s="6">
         <v>1</v>
@@ -6442,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>192</v>
@@ -6454,13 +6483,13 @@
         <v>358</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z38" s="6">
         <v>3</v>
@@ -6483,7 +6512,7 @@
         <v>710</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O39" s="6">
         <v>1</v>
@@ -6492,7 +6521,7 @@
         <v>23</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>195</v>
@@ -6504,13 +6533,13 @@
         <v>358</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z39" s="6">
         <v>3</v>
@@ -6524,7 +6553,7 @@
         <v>196</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E40" s="11">
         <v>800</v>
@@ -6533,7 +6562,7 @@
         <v>400</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O40" s="6">
         <v>1</v>
@@ -6542,7 +6571,7 @@
         <v>23</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="T40" s="7" t="s">
         <v>198</v>
@@ -6554,16 +6583,16 @@
         <v>358</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z40" s="6">
         <v>3</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="AD40" s="7" t="s">
         <v>197</v>
@@ -6583,7 +6612,7 @@
         <v>320</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O41" s="6">
         <v>1</v>
@@ -6592,7 +6621,7 @@
         <v>353</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>199</v>
@@ -6601,13 +6630,13 @@
         <v>25</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z41" s="6">
         <v>3</v>
@@ -6624,7 +6653,7 @@
         <v>139</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E42" s="11">
         <v>1050</v>
@@ -6633,7 +6662,7 @@
         <v>530</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O42" s="6">
         <v>1</v>
@@ -6642,7 +6671,7 @@
         <v>353</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="T42" s="7" t="s">
         <v>200</v>
@@ -6651,13 +6680,13 @@
         <v>25</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z42" s="6">
         <v>3</v>
@@ -6674,7 +6703,7 @@
         <v>141</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E43" s="11">
         <v>630</v>
@@ -6683,7 +6712,7 @@
         <v>320</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O43" s="6">
         <v>1</v>
@@ -6692,7 +6721,7 @@
         <v>276</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>201</v>
@@ -6704,10 +6733,10 @@
         <v>358</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z43" s="6">
         <v>3</v>
@@ -6733,7 +6762,7 @@
         <v>1000</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O44" s="6">
         <v>1</v>
@@ -6742,7 +6771,7 @@
         <v>23</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>202</v>
@@ -6754,16 +6783,16 @@
         <v>358</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AD44" s="7" t="s">
         <v>80</v>
@@ -6783,7 +6812,7 @@
         <v>500</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O45" s="6">
         <v>1</v>
@@ -6792,7 +6821,7 @@
         <v>23</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>205</v>
@@ -6804,19 +6833,19 @@
         <v>358</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AD45" s="7" t="s">
         <v>204</v>
@@ -6836,7 +6865,7 @@
         <v>290</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O46" s="6">
         <v>1</v>
@@ -6845,7 +6874,7 @@
         <v>23</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>206</v>
@@ -6857,10 +6886,10 @@
         <v>358</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z46" s="6">
         <v>3</v>
@@ -6883,7 +6912,7 @@
         <v>270</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O47" s="6">
         <v>1</v>
@@ -6892,7 +6921,7 @@
         <v>23</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>207</v>
@@ -6904,10 +6933,10 @@
         <v>358</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z47" s="6">
         <v>5</v>
@@ -6930,7 +6959,7 @@
         <v>250</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O48" s="6">
         <v>1</v>
@@ -6939,7 +6968,7 @@
         <v>23</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="T48" s="7" t="s">
         <v>233</v>
@@ -6951,11 +6980,11 @@
         <v>358</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z48" s="6">
         <v>3</v>
@@ -6975,7 +7004,7 @@
         <v>500</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="O49" s="6">
         <v>1</v>
@@ -6984,7 +7013,7 @@
         <v>23</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="T49" s="7" t="s">
         <v>234</v>
@@ -6996,10 +7025,10 @@
         <v>358</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z49" s="6">
         <v>3</v>
@@ -7019,7 +7048,7 @@
         <v>700</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O50" s="6">
         <v>1</v>
@@ -7028,7 +7057,7 @@
         <v>23</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>234</v>
@@ -7040,10 +7069,10 @@
         <v>358</v>
       </c>
       <c r="W50" s="8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z50" s="6">
         <v>3</v>
@@ -7066,7 +7095,7 @@
         <v>250</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O51" s="6">
         <v>1</v>
@@ -7075,7 +7104,7 @@
         <v>23</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>235</v>
@@ -7087,16 +7116,16 @@
         <v>358</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z51" s="6">
         <v>3</v>
       </c>
       <c r="AB51" s="9" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AD51" s="7" t="s">
         <v>78</v>
@@ -7107,7 +7136,7 @@
         <v>81</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E52" s="11">
         <v>4860</v>
@@ -7116,7 +7145,7 @@
         <v>2410</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O52" s="6">
         <v>2</v>
@@ -7125,7 +7154,7 @@
         <v>23</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>236</v>
@@ -7137,10 +7166,10 @@
         <v>358</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z52" s="6">
         <v>3</v>
@@ -7163,7 +7192,7 @@
         <v>350</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="O53" s="6">
         <v>1</v>
@@ -7172,7 +7201,7 @@
         <v>23</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="T53" s="7" t="s">
         <v>237</v>
@@ -7181,13 +7210,13 @@
         <v>25</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="Y53" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z53" s="6">
         <v>4</v>
@@ -7210,7 +7239,7 @@
         <v>450</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O54" s="6">
         <v>1</v>
@@ -7219,7 +7248,7 @@
         <v>23</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="T54" s="7" t="s">
         <v>238</v>
@@ -7228,13 +7257,13 @@
         <v>25</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="Y54" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z54" s="6">
         <v>3</v>
@@ -7245,10 +7274,10 @@
     </row>
     <row r="55" spans="2:30" s="6" customFormat="1">
       <c r="B55" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E55" s="11">
         <v>1600</v>
@@ -7257,7 +7286,7 @@
         <v>800</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O55" s="6">
         <v>1</v>
@@ -7266,22 +7295,22 @@
         <v>23</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="U55" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="W55" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z55" s="6">
         <v>3</v>
@@ -7293,7 +7322,7 @@
         <v>87</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E56" s="6">
         <v>700</v>
@@ -7302,7 +7331,7 @@
         <v>350</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O56" s="6">
         <v>1</v>
@@ -7311,7 +7340,7 @@
         <v>23</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="T56" s="7" t="s">
         <v>239</v>
@@ -7320,13 +7349,13 @@
         <v>25</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W56" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z56" s="6">
         <v>3</v>
@@ -7349,7 +7378,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O57" s="6">
         <v>1</v>
@@ -7358,7 +7387,7 @@
         <v>23</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="T57" s="7" t="s">
         <v>240</v>
@@ -7370,13 +7399,13 @@
         <v>358</v>
       </c>
       <c r="W57" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Y57" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z57" s="6">
         <v>3</v>
@@ -7402,7 +7431,7 @@
         <v>190</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O58" s="6">
         <v>1</v>
@@ -7411,7 +7440,7 @@
         <v>23</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="T58" s="7" t="s">
         <v>241</v>
@@ -7423,13 +7452,13 @@
         <v>358</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z58" s="6">
         <v>3</v>
@@ -7443,7 +7472,7 @@
         <v>92</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E59" s="11">
         <v>470</v>
@@ -7455,7 +7484,7 @@
         <v>240</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O59" s="6">
         <v>1</v>
@@ -7464,7 +7493,7 @@
         <v>23</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="T59" s="7" t="s">
         <v>242</v>
@@ -7476,13 +7505,13 @@
         <v>358</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z59" s="6">
         <v>3</v>
@@ -7505,7 +7534,7 @@
         <v>2200</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O60" s="6">
         <v>1</v>
@@ -7514,7 +7543,7 @@
         <v>23</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T60" s="7" t="s">
         <v>243</v>
@@ -7526,19 +7555,19 @@
         <v>358</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="X60" s="8" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z60" s="6">
         <v>3</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AD60" s="7" t="s">
         <v>95</v>
@@ -7561,7 +7590,7 @@
         <v>390</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O61" s="6">
         <v>1</v>
@@ -7570,7 +7599,7 @@
         <v>23</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T61" s="7" t="s">
         <v>244</v>
@@ -7582,13 +7611,13 @@
         <v>358</v>
       </c>
       <c r="W61" s="8" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X61" s="8" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z61" s="6">
         <v>5</v>
@@ -7614,7 +7643,7 @@
         <v>560</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O62" s="6">
         <v>1</v>
@@ -7623,7 +7652,7 @@
         <v>23</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T62" s="7" t="s">
         <v>245</v>
@@ -7635,19 +7664,19 @@
         <v>358</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="X62" s="8" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z62" s="6">
         <v>3</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="AD62" s="7" t="s">
         <v>296</v>
@@ -7670,7 +7699,7 @@
         <v>610</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="O63" s="6">
         <v>1</v>
@@ -7679,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T63" s="7" t="s">
         <v>246</v>
@@ -7691,19 +7720,19 @@
         <v>358</v>
       </c>
       <c r="W63" s="8" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z63" s="6">
         <v>3</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="AD63" s="7" t="s">
         <v>100</v>
@@ -7720,7 +7749,7 @@
         <v>440</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="O64" s="6">
         <v>1</v>
@@ -7729,7 +7758,7 @@
         <v>23</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="T64" s="7" t="s">
         <v>279</v>
@@ -7741,13 +7770,13 @@
         <v>358</v>
       </c>
       <c r="W64" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="X64" s="8" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z64" s="6">
         <v>3</v>
@@ -7771,7 +7800,7 @@
         <v>520</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="O65" s="6">
         <v>1</v>
@@ -7780,7 +7809,7 @@
         <v>23</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>280</v>
@@ -7792,16 +7821,16 @@
         <v>358</v>
       </c>
       <c r="W65" s="8" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z65" s="6">
         <v>3</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AD65" s="7" t="s">
         <v>356</v>
@@ -7821,7 +7850,7 @@
         <v>690</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="O66" s="6">
         <v>1</v>
@@ -7830,7 +7859,7 @@
         <v>23</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T66" s="7" t="s">
         <v>247</v>
@@ -7842,16 +7871,16 @@
         <v>358</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z66" s="6">
         <v>3</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AD66" s="7" t="s">
         <v>102</v>
@@ -7871,7 +7900,7 @@
         <v>840</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="O67" s="6">
         <v>1</v>
@@ -7880,7 +7909,7 @@
         <v>23</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T67" s="7" t="s">
         <v>248</v>
@@ -7892,16 +7921,16 @@
         <v>358</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z67" s="6">
         <v>3</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AD67" s="7" t="s">
         <v>104</v>
@@ -7921,7 +7950,7 @@
         <v>530</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O68" s="6">
         <v>1</v>
@@ -7930,7 +7959,7 @@
         <v>23</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>249</v>
@@ -7942,16 +7971,16 @@
         <v>358</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z68" s="6">
         <v>3</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AD68" s="7" t="s">
         <v>106</v>
@@ -7962,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E69" s="11">
         <v>910</v>
@@ -7971,7 +8000,7 @@
         <v>450</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O69" s="6">
         <v>1</v>
@@ -7980,7 +8009,7 @@
         <v>23</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T69" s="7" t="s">
         <v>250</v>
@@ -7992,10 +8021,10 @@
         <v>358</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z69" s="6">
         <v>3</v>
@@ -8009,7 +8038,7 @@
         <v>109</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E70" s="11">
         <v>1260</v>
@@ -8018,7 +8047,7 @@
         <v>500</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O70" s="6">
         <v>1</v>
@@ -8027,7 +8056,7 @@
         <v>23</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="T70" s="7" t="s">
         <v>251</v>
@@ -8039,16 +8068,16 @@
         <v>358</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z70" s="6">
         <v>3</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AD70" s="7" t="s">
         <v>304</v>
@@ -8056,10 +8085,10 @@
     </row>
     <row r="71" spans="2:30" s="6" customFormat="1">
       <c r="B71" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E71" s="11">
         <v>5150</v>
@@ -8075,7 +8104,7 @@
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O71" s="6">
         <v>2</v>
@@ -8084,10 +8113,10 @@
         <v>23</v>
       </c>
       <c r="S71" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="T71" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="T71" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="U71" s="6" t="s">
         <v>25</v>
@@ -8096,13 +8125,13 @@
         <v>358</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z71" s="6">
         <v>3</v>
@@ -8113,10 +8142,10 @@
     </row>
     <row r="72" spans="2:30" s="6" customFormat="1">
       <c r="B72" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E72" s="11">
         <v>4950</v>
@@ -8132,7 +8161,7 @@
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O72" s="6">
         <v>2</v>
@@ -8141,10 +8170,10 @@
         <v>23</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="U72" s="6" t="s">
         <v>25</v>
@@ -8153,13 +8182,13 @@
         <v>358</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="X72" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z72" s="6">
         <v>3</v>
@@ -8170,10 +8199,10 @@
     </row>
     <row r="73" spans="2:30" s="6" customFormat="1">
       <c r="B73" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E73" s="11">
         <v>4750</v>
@@ -8189,7 +8218,7 @@
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O73" s="6">
         <v>2</v>
@@ -8198,10 +8227,10 @@
         <v>23</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="U73" s="6" t="s">
         <v>25</v>
@@ -8210,13 +8239,13 @@
         <v>358</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="X73" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z73" s="6">
         <v>3</v>
@@ -8227,10 +8256,10 @@
     </row>
     <row r="74" spans="2:30" s="6" customFormat="1">
       <c r="B74" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E74" s="11">
         <v>3650</v>
@@ -8245,7 +8274,7 @@
         <v>2500</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O74" s="6">
         <v>1</v>
@@ -8254,7 +8283,7 @@
         <v>23</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>252</v>
@@ -8266,13 +8295,13 @@
         <v>358</v>
       </c>
       <c r="W74" s="8" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="X74" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Y74" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z74" s="6">
         <v>3</v>
@@ -8283,10 +8312,10 @@
     </row>
     <row r="75" spans="2:30" s="6" customFormat="1">
       <c r="B75" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E75" s="11">
         <v>3590</v>
@@ -8301,7 +8330,7 @@
         <v>2500</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O75" s="6">
         <v>1</v>
@@ -8310,7 +8339,7 @@
         <v>23</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>252</v>
@@ -8322,13 +8351,13 @@
         <v>358</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="X75" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Y75" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z75" s="6">
         <v>3</v>
@@ -8339,10 +8368,10 @@
     </row>
     <row r="76" spans="2:30" s="6" customFormat="1">
       <c r="B76" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E76" s="11">
         <v>3210</v>
@@ -8357,7 +8386,7 @@
         <v>2500</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O76" s="6">
         <v>1</v>
@@ -8366,7 +8395,7 @@
         <v>23</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>252</v>
@@ -8378,13 +8407,13 @@
         <v>358</v>
       </c>
       <c r="W76" s="8" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="X76" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z76" s="6">
         <v>3</v>
@@ -8404,7 +8433,7 @@
         <v>2000</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="O77" s="6">
         <v>1</v>
@@ -8413,7 +8442,7 @@
         <v>23</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>253</v>
@@ -8425,10 +8454,10 @@
         <v>358</v>
       </c>
       <c r="W77" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z77" s="6">
         <v>3</v>
@@ -8448,16 +8477,16 @@
         <v>3000</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="O78" s="6">
-        <v>24</v>
+        <v>540</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>254</v>
@@ -8469,10 +8498,10 @@
         <v>358</v>
       </c>
       <c r="W78" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z78" s="6">
         <v>3</v>
@@ -8486,7 +8515,7 @@
         <v>115</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E79" s="11">
         <v>1110</v>
@@ -8495,7 +8524,7 @@
         <v>600</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="O79" s="6">
         <v>1</v>
@@ -8504,7 +8533,7 @@
         <v>23</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>255</v>
@@ -8516,16 +8545,16 @@
         <v>358</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z79" s="6">
         <v>3</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="AD79" s="7" t="s">
         <v>116</v>
@@ -8536,7 +8565,7 @@
         <v>117</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E80" s="11">
         <v>2520</v>
@@ -8545,7 +8574,7 @@
         <v>920</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O80" s="6">
         <v>2</v>
@@ -8554,10 +8583,10 @@
         <v>23</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="U80" s="6" t="s">
         <v>25</v>
@@ -8566,19 +8595,19 @@
         <v>358</v>
       </c>
       <c r="W80" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="X80" s="8" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Y80" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z80" s="6">
         <v>3</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AD80" s="7" t="s">
         <v>118</v>
@@ -8589,7 +8618,7 @@
         <v>117</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="E81" s="11">
         <v>1560</v>
@@ -8598,7 +8627,7 @@
         <v>400</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O81" s="6">
         <v>2</v>
@@ -8607,10 +8636,10 @@
         <v>23</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="U81" s="6" t="s">
         <v>25</v>
@@ -8619,19 +8648,19 @@
         <v>358</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="X81" s="8" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z81" s="6">
         <v>3</v>
       </c>
       <c r="AB81" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AD81" s="7" t="s">
         <v>118</v>
@@ -8642,7 +8671,7 @@
         <v>119</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E82" s="11">
         <v>1640</v>
@@ -8651,7 +8680,7 @@
         <v>430</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O82" s="6">
         <v>1</v>
@@ -8660,7 +8689,7 @@
         <v>23</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>256</v>
@@ -8672,19 +8701,19 @@
         <v>358</v>
       </c>
       <c r="W82" s="8" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="X82" s="8" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z82" s="6">
         <v>3</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AD82" s="7" t="s">
         <v>120</v>
@@ -8704,7 +8733,7 @@
         <v>1000</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O83" s="6">
         <v>1</v>
@@ -8713,7 +8742,7 @@
         <v>23</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="T83" s="7" t="s">
         <v>257</v>
@@ -8725,10 +8754,10 @@
         <v>358</v>
       </c>
       <c r="W83" s="8" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z83" s="6">
         <v>3</v>
@@ -8751,7 +8780,7 @@
         <v>500</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O84" s="6">
         <v>1</v>
@@ -8760,7 +8789,7 @@
         <v>23</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="T84" s="7" t="s">
         <v>258</v>
@@ -8772,13 +8801,13 @@
         <v>358</v>
       </c>
       <c r="W84" s="8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z84" s="6">
         <v>3</v>
@@ -8789,10 +8818,10 @@
     </row>
     <row r="85" spans="2:30" s="6" customFormat="1">
       <c r="B85" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E85" s="12">
         <v>5620</v>
@@ -8804,7 +8833,7 @@
         <v>4530</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O85" s="6">
         <v>1</v>
@@ -8813,10 +8842,10 @@
         <v>23</v>
       </c>
       <c r="S85" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="T85" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="T85" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="U85" s="6" t="s">
         <v>25</v>
@@ -8825,10 +8854,10 @@
         <v>358</v>
       </c>
       <c r="W85" s="8" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Y85" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z85" s="6">
         <v>3</v>
@@ -8839,10 +8868,10 @@
     </row>
     <row r="86" spans="2:30" s="6" customFormat="1">
       <c r="B86" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E86" s="12">
         <v>5470</v>
@@ -8854,7 +8883,7 @@
         <v>4470</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O86" s="6">
         <v>1</v>
@@ -8863,10 +8892,10 @@
         <v>23</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="U86" s="6" t="s">
         <v>25</v>
@@ -8875,10 +8904,10 @@
         <v>358</v>
       </c>
       <c r="W86" s="8" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z86" s="6">
         <v>3</v>
@@ -8889,10 +8918,10 @@
     </row>
     <row r="87" spans="2:30" s="6" customFormat="1">
       <c r="B87" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E87" s="12">
         <v>4460</v>
@@ -8904,7 +8933,7 @@
         <v>3360</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O87" s="6">
         <v>1</v>
@@ -8913,10 +8942,10 @@
         <v>23</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="U87" s="6" t="s">
         <v>25</v>
@@ -8925,10 +8954,10 @@
         <v>358</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Y87" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z87" s="6">
         <v>3</v>
@@ -8951,7 +8980,7 @@
         <v>290</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O88" s="6">
         <v>1</v>
@@ -8960,7 +8989,7 @@
         <v>23</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="T88" s="7" t="s">
         <v>259</v>
@@ -8972,10 +9001,10 @@
         <v>358</v>
       </c>
       <c r="W88" s="8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="Y88" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z88" s="6">
         <v>3</v>
@@ -8989,7 +9018,7 @@
         <v>126</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E89" s="11">
         <v>820</v>
@@ -8998,7 +9027,7 @@
         <v>410</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O89" s="6">
         <v>1</v>
@@ -9007,7 +9036,7 @@
         <v>23</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="T89" s="7" t="s">
         <v>260</v>
@@ -9016,16 +9045,16 @@
         <v>25</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W89" s="8" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="X89" s="8" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z89" s="6">
         <v>3</v>
@@ -9039,7 +9068,7 @@
         <v>127</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E90" s="11">
         <v>900</v>
@@ -9048,16 +9077,16 @@
         <v>450</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O90" s="6">
-        <v>24</v>
+        <v>399</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="R90" s="6" t="s">
         <v>23</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="T90" s="7" t="s">
         <v>261</v>
@@ -9066,16 +9095,16 @@
         <v>25</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W90" s="8" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="X90" s="8" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z90" s="6">
         <v>3</v>
@@ -9089,7 +9118,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E91" s="11">
         <v>1620</v>
@@ -9098,7 +9127,7 @@
         <v>810</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O91" s="6">
         <v>1</v>
@@ -9107,7 +9136,7 @@
         <v>23</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="T91" s="7" t="s">
         <v>262</v>
@@ -9116,16 +9145,16 @@
         <v>25</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="W91" s="8" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="X91" s="8" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z91" s="6">
         <v>4</v>
@@ -9139,7 +9168,7 @@
         <v>130</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E92" s="6">
         <v>730</v>
@@ -9148,7 +9177,7 @@
         <v>370</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O92" s="6">
         <v>1</v>
@@ -9157,7 +9186,7 @@
         <v>23</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="T92" s="7" t="s">
         <v>263</v>
@@ -9169,10 +9198,10 @@
         <v>358</v>
       </c>
       <c r="W92" s="8" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z92" s="6">
         <v>3</v>
@@ -9195,7 +9224,7 @@
         <v>550</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O93" s="6">
         <v>1</v>
@@ -9204,7 +9233,7 @@
         <v>23</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>264</v>
@@ -9213,13 +9242,13 @@
         <v>25</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W93" s="8" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z93" s="6">
         <v>3</v>
@@ -9233,7 +9262,7 @@
         <v>134</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E94" s="11">
         <v>890</v>
@@ -9242,7 +9271,7 @@
         <v>450</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O94" s="6">
         <v>1</v>
@@ -9251,7 +9280,7 @@
         <v>23</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>265</v>
@@ -9263,10 +9292,10 @@
         <v>358</v>
       </c>
       <c r="W94" s="8" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z94" s="6">
         <v>3</v>
@@ -9280,13 +9309,13 @@
         <v>135</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E95" s="6">
         <v>1000</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O95" s="6">
         <v>1</v>
@@ -9295,10 +9324,10 @@
         <v>23</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="U95" s="6" t="s">
         <v>25</v>
@@ -9307,16 +9336,16 @@
         <v>358</v>
       </c>
       <c r="W95" s="8" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z95" s="6">
         <v>3</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AD95" s="7" t="s">
         <v>136</v>
@@ -9324,10 +9353,10 @@
     </row>
     <row r="96" spans="2:30" s="6" customFormat="1">
       <c r="B96" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="E96" s="9">
         <v>740</v>
@@ -9336,7 +9365,7 @@
         <v>370</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O96" s="6">
         <v>1</v>
@@ -9345,39 +9374,39 @@
         <v>23</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T96" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="U96" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V96" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="U96" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>652</v>
-      </c>
       <c r="W96" s="8" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="X96" s="8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z96" s="6">
         <v>3</v>
       </c>
       <c r="AD96" s="17" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="2:30" s="6" customFormat="1">
       <c r="B97" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="E97" s="6">
         <v>830</v>
@@ -9386,7 +9415,7 @@
         <v>420</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O97" s="6">
         <v>1</v>
@@ -9395,39 +9424,39 @@
         <v>23</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T97" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="U97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V97" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="U97" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V97" s="6" t="s">
-        <v>653</v>
-      </c>
       <c r="W97" s="8" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="X97" s="8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z97" s="6">
         <v>3</v>
       </c>
       <c r="AD97" s="17" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98" spans="2:30" s="6" customFormat="1">
       <c r="B98" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="E98" s="6">
         <v>700</v>
@@ -9436,7 +9465,7 @@
         <v>350</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O98" s="6">
         <v>1</v>
@@ -9445,39 +9474,39 @@
         <v>23</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="U98" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V98" s="6" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="X98" s="8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z98" s="6">
         <v>3</v>
       </c>
       <c r="AD98" s="17" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="2:30" s="6" customFormat="1">
       <c r="B99" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="E99" s="6">
         <v>750</v>
@@ -9486,7 +9515,7 @@
         <v>380</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O99" s="6">
         <v>1</v>
@@ -9495,31 +9524,31 @@
         <v>23</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="U99" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V99" s="6" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="W99" s="8" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="X99" s="8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z99" s="6">
         <v>3</v>
       </c>
       <c r="AD99" s="17" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100" spans="2:30" s="6" customFormat="1">
@@ -9536,7 +9565,7 @@
         <v>230</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O100" s="6">
         <v>1</v>
@@ -9545,7 +9574,7 @@
         <v>23</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>266</v>
@@ -9554,16 +9583,16 @@
         <v>25</v>
       </c>
       <c r="V100" s="6" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="W100" s="8" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="X100" s="8" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Z100" s="6">
         <v>4</v>
@@ -9586,7 +9615,7 @@
         <v>340</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O101" s="6">
         <v>1</v>
@@ -9595,7 +9624,7 @@
         <v>23</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T101" s="7" t="s">
         <v>267</v>
@@ -9607,10 +9636,10 @@
         <v>358</v>
       </c>
       <c r="W101" s="8" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z101" s="6">
         <v>3</v>
@@ -9624,7 +9653,7 @@
         <v>150</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E102" s="11">
         <v>610</v>
@@ -9633,7 +9662,7 @@
         <v>310</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O102" s="6">
         <v>1</v>
@@ -9642,7 +9671,7 @@
         <v>23</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="T102" s="7" t="s">
         <v>268</v>
@@ -9651,16 +9680,16 @@
         <v>25</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W102" s="8" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="X102" s="8" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z102" s="6">
         <v>3</v>
@@ -9686,7 +9715,7 @@
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O103" s="6">
         <v>1</v>
@@ -9695,7 +9724,7 @@
         <v>23</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="T103" s="7" t="s">
         <v>269</v>
@@ -9707,13 +9736,13 @@
         <v>358</v>
       </c>
       <c r="W103" s="8" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="X103" s="8" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Z103" s="6">
         <v>3</v>
@@ -9727,7 +9756,7 @@
         <v>153</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="E104" s="11">
         <v>3320</v>
@@ -9742,7 +9771,7 @@
         <v>1970</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="O104" s="6">
         <v>1</v>
@@ -9751,7 +9780,7 @@
         <v>23</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="T104" s="7" t="s">
         <v>270</v>
@@ -9763,13 +9792,13 @@
         <v>358</v>
       </c>
       <c r="W104" s="8" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="X104" s="8" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z104" s="6">
         <v>3</v>
@@ -9793,7 +9822,7 @@
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O105" s="6">
         <v>1</v>
@@ -9802,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="T105" s="7" t="s">
         <v>271</v>
@@ -9811,19 +9840,19 @@
         <v>25</v>
       </c>
       <c r="V105" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="W105" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z105" s="6">
         <v>3</v>
       </c>
       <c r="AB105" s="6" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="AD105" s="7" t="s">
         <v>156</v>
@@ -9846,7 +9875,7 @@
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
       <c r="N106" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O106" s="6">
         <v>2</v>
@@ -9855,7 +9884,7 @@
         <v>23</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="T106" s="7" t="s">
         <v>272</v>
@@ -9864,22 +9893,22 @@
         <v>25</v>
       </c>
       <c r="V106" s="6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="W106" s="8" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="X106" s="8" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z106" s="6">
         <v>5</v>
       </c>
       <c r="AB106" s="6" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="AD106" s="7" t="s">
         <v>158</v>
@@ -9902,7 +9931,7 @@
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O107" s="6">
         <v>3</v>
@@ -9911,7 +9940,7 @@
         <v>23</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="T107" s="7" t="s">
         <v>272</v>
@@ -9920,22 +9949,22 @@
         <v>25</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="W107" s="8" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="X107" s="8" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z107" s="6">
         <v>3</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="AD107" s="7" t="s">
         <v>158</v>
@@ -9946,7 +9975,7 @@
         <v>159</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E108" s="11">
         <v>5000</v>
@@ -9958,7 +9987,7 @@
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O108" s="6">
         <v>2</v>
@@ -9967,7 +9996,7 @@
         <v>23</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>273</v>
@@ -9976,16 +10005,16 @@
         <v>25</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="W108" s="8" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="X108" s="8" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z108" s="6">
         <v>5</v>
@@ -9999,7 +10028,7 @@
         <v>161</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E109" s="11">
         <v>1580</v>
@@ -10011,7 +10040,7 @@
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
       <c r="N109" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O109" s="6">
         <v>1</v>
@@ -10020,7 +10049,7 @@
         <v>23</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="T109" s="7" t="s">
         <v>274</v>
@@ -10032,13 +10061,13 @@
         <v>358</v>
       </c>
       <c r="W109" s="8" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="X109" s="8" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z109" s="6">
         <v>3</v>
@@ -10052,7 +10081,7 @@
         <v>163</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E110" s="11">
         <v>620</v>
@@ -10064,7 +10093,7 @@
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O110" s="6">
         <v>1</v>
@@ -10073,7 +10102,7 @@
         <v>23</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="T110" s="7" t="s">
         <v>275</v>
@@ -10085,13 +10114,13 @@
         <v>358</v>
       </c>
       <c r="W110" s="8" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="X110" s="8" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z110" s="6">
         <v>3</v>
